--- a/Data/Nicotine_Test.xlsx
+++ b/Data/Nicotine_Test.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Downloads\Temp data folder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F19C1A-693C-4336-95C1-646381A317D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="15315" windowHeight="6975"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -54,19 +71,19 @@
     <t>newborns of mothers between the three groups listed above.</t>
   </si>
   <si>
-    <t>Cotinine Level</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Description</t>
+    <t>cotinine_level</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,6 +136,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -166,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,9 +219,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,6 +271,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,21 +463,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="83" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -434,7 +488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>490</v>
       </c>
@@ -445,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>418</v>
       </c>
@@ -456,7 +510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>405</v>
       </c>
@@ -467,7 +521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>328</v>
       </c>
@@ -478,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>700</v>
       </c>
@@ -489,7 +543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>292</v>
       </c>
@@ -500,7 +554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>295</v>
       </c>
@@ -511,7 +565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>272</v>
       </c>
@@ -519,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>240</v>
       </c>
@@ -530,7 +584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>232</v>
       </c>
@@ -541,7 +595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>254</v>
       </c>
@@ -549,7 +603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>219</v>
       </c>
@@ -557,7 +611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>287</v>
       </c>
@@ -565,7 +619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>257</v>
       </c>
@@ -573,7 +627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>271</v>
       </c>
@@ -581,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>282</v>
       </c>
@@ -589,7 +643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>148</v>
       </c>
@@ -597,7 +651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>273</v>
       </c>
@@ -605,7 +659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>350</v>
       </c>
@@ -613,7 +667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>293</v>
       </c>
@@ -621,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>158</v>
       </c>
@@ -629,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>163</v>
       </c>
@@ -637,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>153</v>
       </c>
@@ -645,7 +699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>207</v>
       </c>
@@ -653,7 +707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>211</v>
       </c>
@@ -661,7 +715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>159</v>
       </c>
@@ -669,7 +723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>199</v>
       </c>
@@ -677,7 +731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>187</v>
       </c>
@@ -685,7 +739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>200</v>
       </c>
@@ -693,7 +747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>213</v>
       </c>
@@ -708,24 +762,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
